--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -573,7 +573,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -611,9 +611,6 @@
       </c>
       <c r="B3" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="4" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="Runner_1" sheetId="3" r:id="rId3"/>
     <sheet name="Tests" sheetId="5" r:id="rId4"/>
     <sheet name="Login" sheetId="1" r:id="rId5"/>
-    <sheet name="Config" sheetId="2" r:id="rId6"/>
+    <sheet name="Home" sheetId="7" r:id="rId6"/>
+    <sheet name="Config" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -136,6 +137,18 @@
   </si>
   <si>
     <t>Call same component multiple times</t>
+  </si>
+  <si>
+    <t>LoggedInUserName</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Login;Home</t>
+  </si>
+  <si>
+    <t>1;1</t>
   </si>
 </sst>
 </file>
@@ -497,7 +510,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -572,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -694,9 +707,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -797,94 +810,95 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
+        <f>IF(B6=B5,B6&amp;"."&amp;C6,B6)</f>
+        <v>1112</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1112</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" ref="C6:C11" si="0">IF(B6=B5,C5+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="str">
+        <f>IF(B7=B6,B7&amp;"."&amp;C7,0)</f>
+        <v>1112.1</v>
+      </c>
+      <c r="B7">
+        <f>B6</f>
+        <v>1112</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="str">
-        <f>IF(B5=B4,B5&amp;"."&amp;C5,0)</f>
-        <v>1111.3</v>
-      </c>
-      <c r="B5">
-        <v>1111</v>
-      </c>
-      <c r="C5">
-        <f>IF(B5=B4,C4+1,0)</f>
+      <c r="H7" s="3">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5">
-        <f>IF(B7=B6,B7&amp;"."&amp;C7,B7)</f>
-        <v>1112</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1112</v>
-      </c>
-      <c r="C7" s="5">
-        <f t="shared" ref="C7:C12" si="0">IF(B7=B6,C6+1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="str">
         <f>IF(B8=B7,B8&amp;"."&amp;C8,0)</f>
-        <v>1112.1</v>
+        <v>1112.2</v>
       </c>
       <c r="B8">
-        <f>B7</f>
+        <f t="shared" ref="B8:B9" si="1">B7</f>
         <v>1112</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="str">
         <f>IF(B9=B8,B9&amp;"."&amp;C9,0)</f>
-        <v>1112.2</v>
+        <v>1112.3</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:B10" si="1">B8</f>
+        <f t="shared" si="1"/>
         <v>1112</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -896,38 +910,38 @@
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="str">
         <f>IF(B10=B9,B10&amp;"."&amp;C10,0)</f>
-        <v>1112.3</v>
+        <v>1112.4</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B10" si="2">B9</f>
         <v>1112</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="str">
         <f>IF(B11=B10,B11&amp;"."&amp;C11,0)</f>
-        <v>1112.4</v>
+        <v>1112.5</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11" si="2">B10</f>
+        <f t="shared" ref="B11" si="3">B10</f>
         <v>1112</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -936,29 +950,6 @@
         <v>29</v>
       </c>
       <c r="H11" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="str">
-        <f>IF(B12=B11,B12&amp;"."&amp;C12,0)</f>
-        <v>1112.5</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ref="B12" si="3">B11</f>
-        <v>1112</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="3">
         <v>3</v>
       </c>
     </row>
@@ -972,7 +963,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1042,6 +1033,40 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
